--- a/clothĐang-giao-đơn-hàng-2024-02-11-12_58 (3).xlsx
+++ b/clothĐang-giao-đơn-hàng-2024-02-11-12_58 (3).xlsx
@@ -12,7 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L</t>
+  </si>
+  <si>
+    <t>XÁM KIM TUYẾN LUMI</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,12 +68,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>